--- a/dynamicaccount.xlsx
+++ b/dynamicaccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E5146-5CC9-4310-8531-59BC720E8634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879B264-293D-4C48-9A79-10AA90D2EA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>trest</t>
+  </si>
+  <si>
+    <t>tesrt</t>
   </si>
 </sst>
 </file>
@@ -531,24 +540,24 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="72" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
-    <col min="8" max="8" width="93.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="61.88671875" customWidth="1"/>
+    <col min="8" max="8" width="93.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -606,7 +615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -620,7 +629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -631,7 +640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -657,7 +666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>18</v>
       </c>
@@ -668,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -691,10 +700,13 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -708,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>21</v>
       </c>
@@ -719,7 +731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -742,10 +754,13 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>18</v>
       </c>
@@ -756,7 +771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>21</v>
       </c>
